--- a/data/trans_orig/P32D_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32D_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F46A740-C0D5-4DEC-AD8C-B7E3E48B011E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAE932A9-D9D8-4B04-A89D-17DF21C24DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EB7594BC-D0DC-43D1-8CBE-C20CF235ADB1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6B8EA4D9-C6F9-4E1F-A208-E809713E2AAB}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
   <si>
     <t>Población que se dio un atracón de alcohol más de una vez al mes en el último año en 2023 (Tasa respuesta: 31,79%)</t>
   </si>
@@ -74,163 +74,175 @@
     <t>17,49%</t>
   </si>
   <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
     <t>9,9%</t>
   </si>
   <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
   </si>
   <si>
     <t>90,1%</t>
   </si>
   <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
   </si>
   <si>
     <t>96,19%</t>
   </si>
   <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>92,27%</t>
   </si>
   <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -239,55 +251,55 @@
     <t>8,42%</t>
   </si>
   <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
   </si>
   <si>
     <t>4,83%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
   </si>
   <si>
     <t>7,11%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
   </si>
   <si>
     <t>91,58%</t>
   </si>
   <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
   </si>
   <si>
     <t>95,17%</t>
   </si>
   <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
   </si>
   <si>
     <t>92,89%</t>
   </si>
   <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -296,55 +308,55 @@
     <t>8,84%</t>
   </si>
   <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
   </si>
   <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
   </si>
   <si>
     <t>91,16%</t>
   </si>
   <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
   </si>
   <si>
     <t>95,3%</t>
   </si>
   <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
   </si>
   <si>
     <t>92,58%</t>
   </si>
   <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -353,25 +365,25 @@
     <t>6,4%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
   </si>
   <si>
     <t>3,25%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>2,55%</t>
+    <t>2,46%</t>
   </si>
   <si>
     <t>7,63%</t>
@@ -380,19 +392,19 @@
     <t>93,6%</t>
   </si>
   <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
   </si>
   <si>
     <t>96,75%</t>
   </si>
   <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
   </si>
   <si>
     <t>94,93%</t>
@@ -401,25 +413,25 @@
     <t>92,37%</t>
   </si>
   <si>
-    <t>97,45%</t>
+    <t>97,54%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
   </si>
   <si>
     <t>8,29%</t>
@@ -428,31 +440,31 @@
     <t>6,92%</t>
   </si>
   <si>
-    <t>9,68%</t>
+    <t>9,69%</t>
   </si>
   <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
   </si>
   <si>
     <t>93,78%</t>
   </si>
   <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
   </si>
   <si>
     <t>91,71%</t>
   </si>
   <si>
-    <t>90,32%</t>
+    <t>90,31%</t>
   </si>
   <si>
     <t>93,08%</t>
@@ -870,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CA5AB3C-6177-4CF3-9DA8-7A15C6258824}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BDDEFB-9FC8-4E0C-869A-53A3DAFCED1F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1155,7 +1167,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -1164,13 +1176,13 @@
         <v>14499</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -1179,13 +1191,13 @@
         <v>38018</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1200,13 +1212,13 @@
         <v>202239</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>128</v>
@@ -1215,13 +1227,13 @@
         <v>137373</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>264</v>
@@ -1230,13 +1242,13 @@
         <v>339611</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1292,7 +1304,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1304,13 +1316,13 @@
         <v>28582</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -1319,13 +1331,13 @@
         <v>6111</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -1334,13 +1346,13 @@
         <v>34693</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1355,13 +1367,13 @@
         <v>260041</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>221</v>
@@ -1370,13 +1382,13 @@
         <v>154086</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>464</v>
@@ -1385,13 +1397,13 @@
         <v>414126</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,7 +1459,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1459,13 +1471,13 @@
         <v>29704</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -1474,13 +1486,13 @@
         <v>9770</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -1489,13 +1501,13 @@
         <v>39474</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1510,13 +1522,13 @@
         <v>323022</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>304</v>
@@ -1525,13 +1537,13 @@
         <v>192357</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>609</v>
@@ -1540,13 +1552,13 @@
         <v>515379</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,7 +1614,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1614,13 +1626,13 @@
         <v>24466</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -1629,13 +1641,13 @@
         <v>6758</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -1644,13 +1656,13 @@
         <v>31223</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,13 +1677,13 @@
         <v>252253</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>227</v>
@@ -1680,13 +1692,13 @@
         <v>137055</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>503</v>
@@ -1695,13 +1707,13 @@
         <v>389309</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,7 +1769,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1769,13 +1781,13 @@
         <v>19448</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -1784,13 +1796,13 @@
         <v>7232</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -1799,13 +1811,13 @@
         <v>26680</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,13 +1832,13 @@
         <v>284395</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>197</v>
@@ -1835,13 +1847,13 @@
         <v>215567</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>616</v>
@@ -1850,13 +1862,13 @@
         <v>499961</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,13 +1936,13 @@
         <v>153922</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -1939,13 +1951,13 @@
         <v>61821</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>213</v>
@@ -1954,13 +1966,13 @@
         <v>215743</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,13 +1987,13 @@
         <v>1454962</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>1132</v>
@@ -1990,13 +2002,13 @@
         <v>931815</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>2566</v>
@@ -2005,13 +2017,13 @@
         <v>2386777</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,7 +2079,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32D_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32D_R-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAE932A9-D9D8-4B04-A89D-17DF21C24DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F48F1BF-AA45-4C16-B3C2-2951A0A408D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6B8EA4D9-C6F9-4E1F-A208-E809713E2AAB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E4FEB938-8320-498B-BE13-6F1659127500}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -882,7 +882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BDDEFB-9FC8-4E0C-869A-53A3DAFCED1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6A6252-5541-437C-AE1E-D28740EBBEE9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P32D_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32D_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F48F1BF-AA45-4C16-B3C2-2951A0A408D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F090AEF9-828F-417F-9EC9-94751980121D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E4FEB938-8320-498B-BE13-6F1659127500}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8B3717F5-106C-4376-9BDE-71544002B7D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
   <si>
     <t>Población que se dio un atracón de alcohol más de una vez al mes en el último año en 2023 (Tasa respuesta: 31,79%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>17,49%</t>
   </si>
   <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
   </si>
   <si>
     <t>16,66%</t>
   </si>
   <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>82,51%</t>
   </si>
   <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
   </si>
   <si>
     <t>83,34%</t>
   </si>
   <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,112 +137,100 @@
     <t>10,42%</t>
   </si>
   <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
+    <t>6,17%</t>
   </si>
   <si>
     <t>9,55%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
   </si>
   <si>
     <t>10,07%</t>
   </si>
   <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
   </si>
   <si>
     <t>89,58%</t>
   </si>
   <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
+    <t>93,83%</t>
   </si>
   <si>
     <t>90,45%</t>
   </si>
   <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>89,93%</t>
   </si>
   <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
   <si>
     <t>35/44</t>
   </si>
   <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
   </si>
   <si>
     <t>3,81%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
   </si>
   <si>
     <t>96,19%</t>
   </si>
   <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
   </si>
   <si>
     <t>92,27%</t>
   </si>
   <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,55 +239,55 @@
     <t>8,42%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
   </si>
   <si>
     <t>4,83%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
   </si>
   <si>
     <t>7,11%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
   </si>
   <si>
     <t>91,58%</t>
   </si>
   <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
   </si>
   <si>
     <t>95,17%</t>
   </si>
   <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
   </si>
   <si>
     <t>92,89%</t>
   </si>
   <si>
-    <t>90,82%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -308,55 +296,55 @@
     <t>8,84%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
   </si>
   <si>
     <t>4,7%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
   </si>
   <si>
     <t>91,16%</t>
   </si>
   <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
   </si>
   <si>
     <t>95,3%</t>
   </si>
   <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
   <si>
     <t>92,58%</t>
   </si>
   <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -365,25 +353,25 @@
     <t>6,4%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
   </si>
   <si>
     <t>3,25%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>2,46%</t>
+    <t>2,55%</t>
   </si>
   <si>
     <t>7,63%</t>
@@ -392,19 +380,19 @@
     <t>93,6%</t>
   </si>
   <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
   </si>
   <si>
     <t>96,75%</t>
   </si>
   <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>94,93%</t>
@@ -413,25 +401,25 @@
     <t>92,37%</t>
   </si>
   <si>
-    <t>97,54%</t>
+    <t>97,45%</t>
   </si>
   <si>
     <t>9,57%</t>
   </si>
   <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
   </si>
   <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
   </si>
   <si>
     <t>8,29%</t>
@@ -440,31 +428,31 @@
     <t>6,92%</t>
   </si>
   <si>
-    <t>9,69%</t>
+    <t>9,68%</t>
   </si>
   <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
   </si>
   <si>
     <t>93,78%</t>
   </si>
   <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
   </si>
   <si>
     <t>91,71%</t>
   </si>
   <si>
-    <t>90,31%</t>
+    <t>90,32%</t>
   </si>
   <si>
     <t>93,08%</t>
@@ -882,7 +870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB6A6252-5541-437C-AE1E-D28740EBBEE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510F4F41-9530-4948-AE84-BB4009117626}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1167,7 +1155,7 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
@@ -1176,13 +1164,13 @@
         <v>14499</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
@@ -1191,13 +1179,13 @@
         <v>38018</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1212,13 +1200,13 @@
         <v>202239</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>128</v>
@@ -1227,13 +1215,13 @@
         <v>137373</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>264</v>
@@ -1242,13 +1230,13 @@
         <v>339611</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1304,7 +1292,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1316,13 +1304,13 @@
         <v>28582</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -1331,13 +1319,13 @@
         <v>6111</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -1346,13 +1334,13 @@
         <v>34693</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1367,13 +1355,13 @@
         <v>260041</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>221</v>
@@ -1382,13 +1370,13 @@
         <v>154086</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>464</v>
@@ -1397,13 +1385,13 @@
         <v>414126</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1459,7 +1447,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1471,13 +1459,13 @@
         <v>29704</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -1486,13 +1474,13 @@
         <v>9770</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
@@ -1501,13 +1489,13 @@
         <v>39474</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1522,13 +1510,13 @@
         <v>323022</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>304</v>
@@ -1537,13 +1525,13 @@
         <v>192357</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>609</v>
@@ -1552,13 +1540,13 @@
         <v>515379</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,7 +1602,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1626,13 +1614,13 @@
         <v>24466</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -1641,13 +1629,13 @@
         <v>6758</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -1656,13 +1644,13 @@
         <v>31223</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,13 +1665,13 @@
         <v>252253</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>227</v>
@@ -1692,13 +1680,13 @@
         <v>137055</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>503</v>
@@ -1707,13 +1695,13 @@
         <v>389309</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,7 +1757,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1781,13 +1769,13 @@
         <v>19448</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -1796,13 +1784,13 @@
         <v>7232</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>37</v>
@@ -1811,13 +1799,13 @@
         <v>26680</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1820,13 @@
         <v>284395</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>197</v>
@@ -1847,13 +1835,13 @@
         <v>215567</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>616</v>
@@ -1862,13 +1850,13 @@
         <v>499961</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,13 +1924,13 @@
         <v>153922</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>69</v>
@@ -1951,13 +1939,13 @@
         <v>61821</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>213</v>
@@ -1966,13 +1954,13 @@
         <v>215743</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +1975,13 @@
         <v>1454962</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>1132</v>
@@ -2002,13 +1990,13 @@
         <v>931815</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>2566</v>
@@ -2017,13 +2005,13 @@
         <v>2386777</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,7 +2067,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P32D_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32D_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F090AEF9-828F-417F-9EC9-94751980121D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13B9F6FC-859C-485C-B76A-3A38A8C89FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8B3717F5-106C-4376-9BDE-71544002B7D2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C9C6061E-FD2D-4C08-A876-C717D8E48D98}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="158">
   <si>
     <t>Población que se dio un atracón de alcohol más de una vez al mes en el último año en 2023 (Tasa respuesta: 31,79%)</t>
   </si>
@@ -65,397 +65,448 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
   </si>
   <si>
     <t>93,19%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
   </si>
   <si>
     <t>5,45%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
   </si>
   <si>
     <t>94,55%</t>
   </si>
   <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -870,8 +921,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510F4F41-9530-4948-AE84-BB4009117626}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7622E276-D298-4930-BAD9-83105193CE95}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -991,7 +1042,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>28203</v>
+        <v>25643</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1006,7 +1057,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>17452</v>
+        <v>15352</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1021,7 +1072,7 @@
         <v>27</v>
       </c>
       <c r="N4" s="7">
-        <v>45655</v>
+        <v>40995</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1042,7 +1093,7 @@
         <v>55</v>
       </c>
       <c r="D5" s="7">
-        <v>133013</v>
+        <v>144260</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1057,7 +1108,7 @@
         <v>55</v>
       </c>
       <c r="I5" s="7">
-        <v>95378</v>
+        <v>85499</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1072,7 +1123,7 @@
         <v>110</v>
       </c>
       <c r="N5" s="7">
-        <v>228390</v>
+        <v>229758</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1093,7 +1144,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="7">
-        <v>161216</v>
+        <v>169903</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1108,7 +1159,7 @@
         <v>67</v>
       </c>
       <c r="I6" s="7">
-        <v>112830</v>
+        <v>100851</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1123,7 +1174,7 @@
         <v>137</v>
       </c>
       <c r="N6" s="7">
-        <v>274045</v>
+        <v>270753</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1146,7 +1197,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>23519</v>
+        <v>22964</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1155,37 +1206,37 @@
         <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>13</v>
       </c>
       <c r="I7" s="7">
-        <v>14499</v>
+        <v>13540</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>31</v>
       </c>
       <c r="N7" s="7">
-        <v>38018</v>
+        <v>36504</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1197,46 +1248,46 @@
         <v>136</v>
       </c>
       <c r="D8" s="7">
-        <v>202239</v>
+        <v>205506</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>128</v>
       </c>
       <c r="I8" s="7">
-        <v>137373</v>
+        <v>128713</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>264</v>
       </c>
       <c r="N8" s="7">
-        <v>339611</v>
+        <v>334219</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1248,7 +1299,7 @@
         <v>154</v>
       </c>
       <c r="D9" s="7">
-        <v>225758</v>
+        <v>228470</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1263,7 +1314,7 @@
         <v>141</v>
       </c>
       <c r="I9" s="7">
-        <v>151872</v>
+        <v>142253</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1278,7 +1329,7 @@
         <v>295</v>
       </c>
       <c r="N9" s="7">
-        <v>377629</v>
+        <v>370723</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1292,7 +1343,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1301,46 +1352,46 @@
         <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>28582</v>
+        <v>26856</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>6111</v>
+        <v>5453</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
       </c>
       <c r="N10" s="7">
-        <v>34693</v>
+        <v>32309</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1352,46 +1403,46 @@
         <v>243</v>
       </c>
       <c r="D11" s="7">
-        <v>260041</v>
+        <v>255327</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>221</v>
       </c>
       <c r="I11" s="7">
-        <v>154086</v>
+        <v>145361</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>464</v>
       </c>
       <c r="N11" s="7">
-        <v>414126</v>
+        <v>400688</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1403,7 +1454,7 @@
         <v>270</v>
       </c>
       <c r="D12" s="7">
-        <v>288623</v>
+        <v>282183</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1418,7 +1469,7 @@
         <v>229</v>
       </c>
       <c r="I12" s="7">
-        <v>160197</v>
+        <v>150814</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1433,7 +1484,7 @@
         <v>499</v>
       </c>
       <c r="N12" s="7">
-        <v>448819</v>
+        <v>432997</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1447,7 +1498,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1456,46 +1507,46 @@
         <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>29704</v>
+        <v>27589</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
       </c>
       <c r="I13" s="7">
-        <v>9770</v>
+        <v>9037</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
       </c>
       <c r="N13" s="7">
-        <v>39474</v>
+        <v>36626</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1507,46 +1558,46 @@
         <v>305</v>
       </c>
       <c r="D14" s="7">
-        <v>323022</v>
+        <v>315602</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>304</v>
       </c>
       <c r="I14" s="7">
-        <v>192357</v>
+        <v>180764</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>609</v>
       </c>
       <c r="N14" s="7">
-        <v>515379</v>
+        <v>496366</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1558,7 +1609,7 @@
         <v>334</v>
       </c>
       <c r="D15" s="7">
-        <v>352726</v>
+        <v>343191</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1573,7 +1624,7 @@
         <v>320</v>
       </c>
       <c r="I15" s="7">
-        <v>202127</v>
+        <v>189801</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1588,7 +1639,7 @@
         <v>654</v>
       </c>
       <c r="N15" s="7">
-        <v>554853</v>
+        <v>532992</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1602,7 +1653,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1611,46 +1662,46 @@
         <v>27</v>
       </c>
       <c r="D16" s="7">
-        <v>24466</v>
+        <v>22717</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
       </c>
       <c r="I16" s="7">
-        <v>6758</v>
+        <v>6117</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
       </c>
       <c r="N16" s="7">
-        <v>31223</v>
+        <v>28834</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,46 +1713,46 @@
         <v>276</v>
       </c>
       <c r="D17" s="7">
-        <v>252253</v>
+        <v>238845</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>227</v>
       </c>
       <c r="I17" s="7">
-        <v>137055</v>
+        <v>127561</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>503</v>
       </c>
       <c r="N17" s="7">
-        <v>389309</v>
+        <v>366406</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1713,7 +1764,7 @@
         <v>303</v>
       </c>
       <c r="D18" s="7">
-        <v>276719</v>
+        <v>261562</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1728,7 +1779,7 @@
         <v>238</v>
       </c>
       <c r="I18" s="7">
-        <v>143813</v>
+        <v>133678</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1743,7 +1794,7 @@
         <v>541</v>
       </c>
       <c r="N18" s="7">
-        <v>420532</v>
+        <v>395240</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1757,55 +1808,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D19" s="7">
-        <v>19448</v>
+        <v>13250</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I19" s="7">
-        <v>7232</v>
+        <v>3478</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="N19" s="7">
-        <v>26680</v>
+        <v>16727</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,49 +1865,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>419</v>
+        <v>264</v>
       </c>
       <c r="D20" s="7">
-        <v>284395</v>
+        <v>173946</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="I20" s="7">
-        <v>215567</v>
+        <v>276675</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>616</v>
+        <v>409</v>
       </c>
       <c r="N20" s="7">
-        <v>499961</v>
+        <v>450621</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,10 +1916,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>447</v>
+        <v>284</v>
       </c>
       <c r="D21" s="7">
-        <v>303843</v>
+        <v>187196</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1880,10 +1931,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="I21" s="7">
-        <v>222799</v>
+        <v>280153</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1895,10 +1946,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>653</v>
+        <v>436</v>
       </c>
       <c r="N21" s="7">
-        <v>526641</v>
+        <v>467348</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1912,55 +1963,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>144</v>
+        <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>153922</v>
+        <v>5090</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>61821</v>
+        <v>1738</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M22" s="7">
+        <v>10</v>
+      </c>
+      <c r="N22" s="7">
+        <v>6828</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M22" s="7">
-        <v>213</v>
-      </c>
-      <c r="N22" s="7">
-        <v>215743</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,49 +2020,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>1434</v>
+        <v>155</v>
       </c>
       <c r="D23" s="7">
-        <v>1454962</v>
+        <v>93449</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
-        <v>1132</v>
+        <v>52</v>
       </c>
       <c r="I23" s="7">
-        <v>931815</v>
+        <v>25082</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="M23" s="7">
+        <v>207</v>
+      </c>
+      <c r="N23" s="7">
+        <v>118531</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="M23" s="7">
-        <v>2566</v>
-      </c>
-      <c r="N23" s="7">
-        <v>2386777</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,63 +2071,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>163</v>
+      </c>
+      <c r="D24" s="7">
+        <v>98539</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>54</v>
+      </c>
+      <c r="I24" s="7">
+        <v>26820</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>217</v>
+      </c>
+      <c r="N24" s="7">
+        <v>125359</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>144</v>
+      </c>
+      <c r="D25" s="7">
+        <v>144110</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H25" s="7">
+        <v>69</v>
+      </c>
+      <c r="I25" s="7">
+        <v>54715</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M25" s="7">
+        <v>213</v>
+      </c>
+      <c r="N25" s="7">
+        <v>198824</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1434</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1426934</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1132</v>
+      </c>
+      <c r="I26" s="7">
+        <v>969653</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M26" s="7">
+        <v>2566</v>
+      </c>
+      <c r="N26" s="7">
+        <v>2396589</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>1578</v>
       </c>
-      <c r="D24" s="7">
-        <v>1608884</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>1571044</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>1201</v>
       </c>
-      <c r="I24" s="7">
-        <v>993636</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>1024368</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>2779</v>
       </c>
-      <c r="N24" s="7">
-        <v>2602520</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>2595413</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
